--- a/FantaSPL_V2.3.xlsx
+++ b/FantaSPL_V2.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Local_Docs\Admin\Other\Kit\SPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44512F6E-DD9C-4743-894B-88382A62FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ACB36F7-8DB8-4C2C-8F43-8024AAA2F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" firstSheet="2" xr2:uid="{05F018D4-855F-4570-8D15-9B4DD092A228}"/>
   </bookViews>
@@ -81,7 +81,7 @@
     <t>MVP</t>
   </si>
   <si>
-    <t>Friend Referal</t>
+    <t>Friend Referral</t>
   </si>
   <si>
     <t>Defence Score</t>
@@ -932,7 +932,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,7 +1471,7 @@
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
